--- a/data/trans_dic/P16B06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,55%</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>33,93; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>17,25; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>41,77; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>17,25; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>45,35; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>17,53; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>62,59; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>27,3; 92,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>53,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,41%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>55,85; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>68,3; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>80,9; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>75,82; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>42,68; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>74,1; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>76,62; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>81,95; 97,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>77,95; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>84,98; 98,32</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>31,36; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>83,67; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>86,43; 98,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>74,7; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>86,88; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>89,06; 98,68</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>80,81; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>87,55; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>86,89; 98,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>95,27; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>93,88; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>88,77; 98,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>96,22; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>94,23; 99,45</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>80,31; 95,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>91,44; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>88,97; 98,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>90,78; 98,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>94,72; 99,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>92,81; 97,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>89,02; 96,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,51; 99,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>93,19; 97,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,81; 100,0</t>
+          <t>59,7; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,36; 100</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,55; 100,0</t>
+          <t>75,73; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,89; 98,64</t>
+          <t>81,6; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,27; 100,0</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,88; 100,0</t>
+          <t>92,47; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,77; 98,13</t>
+          <t>85,63; 98,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,22; 100,0</t>
+          <t>96,1; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,23; 99,45</t>
+          <t>91,52; 98,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>98,42%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>74,18; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92,07; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>79,36; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>92,96; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89,28; 100,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85,38; 100,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92,55; 100,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91,07; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>90,57%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97,39%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95,46%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>97,9%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>95,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97,78%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>80,31; 95,91</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>91,44; 100,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>88,97; 98,81</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>90,78; 98,07</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>94,72; 99,53</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>92,81; 97,98</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>89,02; 96,32</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>95,51; 99,03</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>93,19; 97,62</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>18,55; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,93; 100,0</t>
+          <t>27,46; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 100,0</t>
+          <t>25,36; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>18,55; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,77; 100,0</t>
+          <t>41,7; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 100,0</t>
+          <t>25,36; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 100,0</t>
+          <t>45,14; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,59; 100,0</t>
+          <t>68,73; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,3; 92,46</t>
+          <t>29,33; 92,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,02; 100,0</t>
+          <t>53,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,85; 100,0</t>
+          <t>55,79; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,3; 100,0</t>
+          <t>74,39; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,9; 100,0</t>
+          <t>81,43; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,82; 100,0</t>
+          <t>76,89; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,68; 100,0</t>
+          <t>45,34; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,1; 100,0</t>
+          <t>75,08; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,62; 100,0</t>
+          <t>76,24; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,95; 97,88</t>
+          <t>81,71; 97,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,95; 100,0</t>
+          <t>76,68; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,98; 98,32</t>
+          <t>84,79; 98,26</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,36; 100,0</t>
+          <t>35,2; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1145,27 +1146,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,67; 100,0</t>
+          <t>83,71; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,43; 98,37</t>
+          <t>86,27; 98,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,7; 100,0</t>
+          <t>78,06; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,88; 100,0</t>
+          <t>89,69; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,06; 98,68</t>
+          <t>89,28; 98,69</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,7; 100,0</t>
+          <t>69,08; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,12 +1246,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,73; 100,0</t>
+          <t>72,03; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81,6; 100,0</t>
+          <t>78,93; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,47; 100,0</t>
+          <t>92,71; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,63; 98,06</t>
+          <t>83,67; 98,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,52; 98,99</t>
+          <t>91,62; 99,03</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,18; 100,0</t>
+          <t>78,95; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,36; 100,0</t>
+          <t>81,05; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,96; 100,0</t>
+          <t>94,2; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,28; 100,0</t>
+          <t>89,23; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,38; 100,0</t>
+          <t>86,04; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,55; 100,0</t>
+          <t>93,91; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,07; 100,0</t>
+          <t>92,18; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,31; 95,91</t>
+          <t>79,76; 96,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>91,44; 100,0</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,97; 98,81</t>
+          <t>89,59; 98,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,78; 98,07</t>
+          <t>90,59; 97,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,72; 99,53</t>
+          <t>94,52; 99,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,98</t>
+          <t>93,27; 98,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>89,02; 96,32</t>
+          <t>89,43; 96,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,51; 99,03</t>
+          <t>95,42; 99,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,19; 97,62</t>
+          <t>93,07; 97,71</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas pastillas para dormir fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5716</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>187; 818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>934; 5036</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1609; 5862</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1166; 4600</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>934; 5036</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2785; 6679</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1166; 4600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6486</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11585</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7146</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3540; 5099</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4844</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3319; 7353</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1002; 5716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5016; 6535</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8559; 12452</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3097; 9787</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4542; 8524</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7891</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15454</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15800</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31248</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14008</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23691</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46703</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19565</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4902; 8786</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13212; 15454</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3859; 5558</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13931; 15800</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29385; 31248</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11122; 14950</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20021; 24586</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44674; 46703</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15768; 20507</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8384</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14636</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17657</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33603</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42359</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28317</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48240</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4277; 9433</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12513; 14636</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14101; 18782</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15955; 20928</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31467; 33603</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>37113; 44432</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23281; 30361</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46045; 48240</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54439; 63087</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7453</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16446</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25956</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32158</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62654</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33410</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41842</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>79099</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3472; 9863</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7870; 9684</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14228; 16446</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24055; 25956</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27802; 33213</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56964; 64945</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27961; 35819</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38475; 42897</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73635; 81394</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14031</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21114</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29271</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40540</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>65105</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>43302</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50649</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>86220</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10348; 14981</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8215; 10109</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16512; 22923</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24548; 31101</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>38604; 40540</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>61249; 66065</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38558; 45180</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>48672; 50649</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>81536; 88125</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15942</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12609</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21262</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33179</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>70692</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>58985</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49121</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>83301</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>80247</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13233; 16761</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10780; 12609</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>19576; 21262</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27963; 34499</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>67540; 71697</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53782; 60272</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44104; 51260</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>79168; 84306</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>75159; 81534</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>66377</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>83010</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>217221</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>253306</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>192515</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>283597</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>336315</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>51785; 62435</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>62482; 68156</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>77904; 85951</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>127439; 137815</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>209715; 220252</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>246106; 258724</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>183870; 198641</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>276755; 288028</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>326511; 342802</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>